--- a/templates/bought_item_import.sample.xlsx
+++ b/templates/bought_item_import.sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7f5e8d761d92713/Python/glados/backend/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://indatat-my.sharepoint.com/personal/p_delorenzo_indat_at/Documents/Projects/Glados/backend/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="210" documentId="13_ncr:1_{1ECFF020-5D34-4C93-987C-4B9A0C0ECA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FA3B308-95F9-446A-9DE7-B7DE7C9ADC21}"/>
+  <xr:revisionPtr revIDLastSave="214" documentId="13_ncr:1_{1ECFF020-5D34-4C93-987C-4B9A0C0ECA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23AFE849-0E80-4EEC-8C4E-8F293B33D032}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="135" yWindow="240" windowWidth="28995" windowHeight="20505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Glados Bought Item Import" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Group 1</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>BOOL</t>
+  </si>
+  <si>
+    <t>Weblink</t>
   </si>
 </sst>
 </file>
@@ -785,7 +788,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
@@ -799,15 +802,15 @@
     <col min="4" max="4" width="11.42578125" style="6" customWidth="1"/>
     <col min="5" max="5" width="28.5703125" style="8" customWidth="1"/>
     <col min="6" max="6" width="20" style="8" customWidth="1"/>
-    <col min="7" max="9" width="18.5703125" style="8" customWidth="1"/>
-    <col min="10" max="11" width="25.7109375" style="8" customWidth="1"/>
-    <col min="12" max="12" width="25" style="9" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="10" width="18.5703125" style="8" customWidth="1"/>
+    <col min="11" max="12" width="25.7109375" style="8" customWidth="1"/>
+    <col min="13" max="13" width="25" style="9" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>18</v>
       </c>
@@ -824,8 +827,9 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
       <c r="N1" s="27"/>
-    </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O1" s="27"/>
+    </row>
+    <row r="2" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="14"/>
@@ -837,11 +841,12 @@
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="18"/>
-    </row>
-    <row r="3" spans="1:14" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="15"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
+    </row>
+    <row r="3" spans="1:15" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>17</v>
       </c>
@@ -857,11 +862,12 @@
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="18"/>
-    </row>
-    <row r="4" spans="1:14" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="15"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18"/>
+    </row>
+    <row r="4" spans="1:15" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
       <c r="B4" s="31"/>
       <c r="C4" s="36" t="s">
@@ -875,11 +881,12 @@
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="18"/>
-    </row>
-    <row r="5" spans="1:14" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="15"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="18"/>
+    </row>
+    <row r="5" spans="1:15" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>19</v>
       </c>
@@ -895,11 +902,12 @@
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="18"/>
-    </row>
-    <row r="6" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="15"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="18"/>
+    </row>
+    <row r="6" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
@@ -911,11 +919,12 @@
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="18"/>
-    </row>
-    <row r="7" spans="1:14" s="19" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L6" s="15"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="18"/>
+    </row>
+    <row r="7" spans="1:15" s="19" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>1</v>
       </c>
@@ -944,25 +953,28 @@
         <v>0</v>
       </c>
       <c r="J7" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="L7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="24" t="s">
+      <c r="M7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="25" t="s">
+      <c r="N7" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="26" t="s">
+      <c r="O7" s="26" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="6">
-    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A1:O1"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C3:D3"/>
@@ -973,8 +985,8 @@
     <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Validation error" error="Please use a quantity greater than zero." sqref="C8:C1048576" xr:uid="{D9BBD316-8004-43B7-AB34-3B7C61EA74AA}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="custom" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8:L1048576" xr:uid="{0889C8B3-B2CD-479A-A740-5F55C545EF5F}">
-      <formula1>L8&gt;=TODAY()</formula1>
+    <dataValidation type="custom" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M8:M1048576" xr:uid="{0889C8B3-B2CD-479A-A740-5F55C545EF5F}">
+      <formula1>M8&gt;=TODAY()</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -986,13 +998,13 @@
           <x14:formula1>
             <xm:f>'Data Validation'!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>M8:M1048576</xm:sqref>
+          <xm:sqref>N8:N1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Validation error" error="Please enter &quot;1&quot; for yes or &quot;0&quot; for no." xr:uid="{42512977-FC56-45DA-B843-5BE6B51CDED2}">
           <x14:formula1>
             <xm:f>'Data Validation'!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>N8:N1048576</xm:sqref>
+          <xm:sqref>O8:O1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Data validation" error="You can only use the units from the dropdown list." xr:uid="{29AEA19D-F839-4318-8007-3B4FB13C11B8}">
           <x14:formula1>

--- a/templates/bought_item_import.sample.xlsx
+++ b/templates/bought_item_import.sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://indatat-my.sharepoint.com/personal/p_delorenzo_indat_at/Documents/Projects/Glados/backend/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="214" documentId="13_ncr:1_{1ECFF020-5D34-4C93-987C-4B9A0C0ECA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23AFE849-0E80-4EEC-8C4E-8F293B33D032}"/>
+  <xr:revisionPtr revIDLastSave="230" documentId="13_ncr:1_{1ECFF020-5D34-4C93-987C-4B9A0C0ECA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9142B32-683A-4B0C-9AE4-D69862D88681}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="240" windowWidth="28995" windowHeight="20505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25845" yWindow="240" windowWidth="25710" windowHeight="20505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Glados Bought Item Import" sheetId="1" r:id="rId1"/>
@@ -21,17 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Group 1</t>
   </si>
   <si>
-    <t>Project</t>
-  </si>
-  <si>
-    <t>Machine</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -81,6 +75,33 @@
   </si>
   <si>
     <t>Available Units:</t>
+  </si>
+  <si>
+    <t>UNIT</t>
+  </si>
+  <si>
+    <t>VPE</t>
+  </si>
+  <si>
+    <t>LFM</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>BOOL</t>
+  </si>
+  <si>
+    <t>Weblink</t>
+  </si>
+  <si>
+    <t>Project Number</t>
   </si>
   <si>
     <r>
@@ -89,35 +110,11 @@
     <r>
       <rPr>
         <sz val="8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
       </rPr>
       <t>, VPE, LFM, M2, M3, L</t>
     </r>
-  </si>
-  <si>
-    <t>UNIT</t>
-  </si>
-  <si>
-    <t>VPE</t>
-  </si>
-  <si>
-    <t>LFM</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>M3</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>BOOL</t>
-  </si>
-  <si>
-    <t>Weblink</t>
   </si>
 </sst>
 </file>
@@ -137,32 +134,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Biome Light"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Biome Light"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Biome Light"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Biome Light"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -170,15 +141,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Biome Light"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -370,9 +367,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -382,108 +378,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -788,31 +775,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="20" style="8" customWidth="1"/>
-    <col min="7" max="10" width="18.5703125" style="8" customWidth="1"/>
-    <col min="11" max="12" width="25.7109375" style="8" customWidth="1"/>
-    <col min="13" max="13" width="25" style="9" customWidth="1"/>
-    <col min="14" max="14" width="20.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="14.28515625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="20" style="23" customWidth="1"/>
+    <col min="6" max="9" width="18.5703125" style="23" customWidth="1"/>
+    <col min="10" max="11" width="25.7109375" style="23" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="24" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="25" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="26" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -827,166 +814,156 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
       <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-    </row>
-    <row r="2" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="18"/>
-    </row>
-    <row r="3" spans="1:15" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="11"/>
+    </row>
+    <row r="3" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="11"/>
+    </row>
+    <row r="4" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
+      <c r="B4" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="11"/>
+    </row>
+    <row r="5" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="18"/>
-    </row>
-    <row r="4" spans="1:15" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="18"/>
-    </row>
-    <row r="5" spans="1:15" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="18"/>
-    </row>
-    <row r="6" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="18"/>
-    </row>
-    <row r="7" spans="1:15" s="19" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="B5" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="35"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="11"/>
+    </row>
+    <row r="6" spans="1:14" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="11"/>
+    </row>
+    <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="C7" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="D7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="E7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="F7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="G7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="H7" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="K7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="22" t="s">
+      <c r="L7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="24" t="s">
+      <c r="M7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="O7" s="26" t="s">
-        <v>14</v>
+      <c r="N7" s="20" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="6">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
+  <mergeCells count="5">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Validation error" error="Please use a quantity greater than zero." sqref="C8:C1048576" xr:uid="{D9BBD316-8004-43B7-AB34-3B7C61EA74AA}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Validation error" error="Please use a quantity greater than zero." sqref="B8:B1048576" xr:uid="{D9BBD316-8004-43B7-AB34-3B7C61EA74AA}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="custom" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M8:M1048576" xr:uid="{0889C8B3-B2CD-479A-A740-5F55C545EF5F}">
-      <formula1>M8&gt;=TODAY()</formula1>
+    <dataValidation type="custom" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8:L1048576" xr:uid="{0889C8B3-B2CD-479A-A740-5F55C545EF5F}">
+      <formula1>L8&gt;=TODAY()</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -998,19 +975,19 @@
           <x14:formula1>
             <xm:f>'Data Validation'!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>N8:N1048576</xm:sqref>
+          <xm:sqref>M8:M1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Validation error" error="Please enter &quot;1&quot; for yes or &quot;0&quot; for no." xr:uid="{42512977-FC56-45DA-B843-5BE6B51CDED2}">
           <x14:formula1>
             <xm:f>'Data Validation'!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>O8:O1048576</xm:sqref>
+          <xm:sqref>N8:N1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Data validation" error="You can only use the units from the dropdown list." xr:uid="{29AEA19D-F839-4318-8007-3B4FB13C11B8}">
           <x14:formula1>
             <xm:f>'Data Validation'!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>D8:D1048576</xm:sqref>
+          <xm:sqref>C8:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1028,51 +1005,51 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/templates/bought_item_import.sample.xlsx
+++ b/templates/bought_item_import.sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://indatat-my.sharepoint.com/personal/p_delorenzo_indat_at/Documents/Projects/Glados/backend/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="230" documentId="13_ncr:1_{1ECFF020-5D34-4C93-987C-4B9A0C0ECA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9142B32-683A-4B0C-9AE4-D69862D88681}"/>
+  <xr:revisionPtr revIDLastSave="238" documentId="13_ncr:1_{1ECFF020-5D34-4C93-987C-4B9A0C0ECA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FF99ABA-2429-40BC-A7BA-D569952DF0F9}"/>
   <bookViews>
-    <workbookView xWindow="-25845" yWindow="240" windowWidth="25710" windowHeight="20505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3300" yWindow="1590" windowWidth="31650" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Glados Bought Item Import" sheetId="1" r:id="rId1"/>
@@ -101,9 +101,6 @@
     <t>Weblink</t>
   </si>
   <si>
-    <t>Project Number</t>
-  </si>
-  <si>
     <r>
       <t>STK</t>
     </r>
@@ -115,6 +112,9 @@
       </rPr>
       <t>, VPE, LFM, M2, M3, L</t>
     </r>
+  </si>
+  <si>
+    <t>Project</t>
   </si>
 </sst>
 </file>
@@ -488,6 +488,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -782,10 +786,10 @@
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="22" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="21" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" style="23" customWidth="1"/>
     <col min="5" max="5" width="20" style="23" customWidth="1"/>
@@ -815,7 +819,7 @@
       <c r="M1" s="27"/>
       <c r="N1" s="27"/>
     </row>
-    <row r="2" spans="1:14" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="6"/>
@@ -874,7 +878,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="14"/>
@@ -889,7 +893,7 @@
       <c r="M5" s="10"/>
       <c r="N5" s="11"/>
     </row>
-    <row r="6" spans="1:14" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
@@ -907,7 +911,7 @@
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>1</v>

--- a/templates/bought_item_import.sample.xlsx
+++ b/templates/bought_item_import.sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://indatat-my.sharepoint.com/personal/p_delorenzo_indat_at/Documents/Projects/Glados/backend/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="238" documentId="13_ncr:1_{1ECFF020-5D34-4C93-987C-4B9A0C0ECA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FF99ABA-2429-40BC-A7BA-D569952DF0F9}"/>
+  <xr:revisionPtr revIDLastSave="241" documentId="13_ncr:1_{1ECFF020-5D34-4C93-987C-4B9A0C0ECA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F667E369-24CA-4E01-AB49-BFA87E97E5D2}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="1590" windowWidth="31650" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25920" yWindow="90" windowWidth="25935" windowHeight="20805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Glados Bought Item Import" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,6 @@
     <t>Partnumber</t>
   </si>
   <si>
-    <t>Definition</t>
-  </si>
-  <si>
     <t>Manufacturer</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>Project</t>
+  </si>
+  <si>
+    <t>Order Number</t>
   </si>
 </sst>
 </file>
@@ -786,7 +786,7 @@
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="21" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" style="22" customWidth="1"/>
@@ -801,9 +801,9 @@
     <col min="15" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -819,7 +819,7 @@
       <c r="M1" s="27"/>
       <c r="N1" s="27"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="6"/>
@@ -835,12 +835,12 @@
       <c r="M2" s="10"/>
       <c r="N2" s="11"/>
     </row>
-    <row r="3" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="8"/>
@@ -855,10 +855,10 @@
       <c r="M3" s="10"/>
       <c r="N3" s="11"/>
     </row>
-    <row r="4" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="29"/>
       <c r="B4" s="32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="8"/>
@@ -873,12 +873,12 @@
       <c r="M4" s="10"/>
       <c r="N4" s="11"/>
     </row>
-    <row r="5" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="14"/>
@@ -893,7 +893,7 @@
       <c r="M5" s="10"/>
       <c r="N5" s="11"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
@@ -911,7 +911,7 @@
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>1</v>
@@ -923,34 +923,34 @@
         <v>3</v>
       </c>
       <c r="E7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="G7" s="16" t="s">
         <v>5</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>6</v>
       </c>
       <c r="H7" s="16" t="s">
         <v>0</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="L7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="18" t="s">
-        <v>9</v>
-      </c>
       <c r="M7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="20" t="s">
         <v>11</v>
-      </c>
-      <c r="N7" s="20" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1014,15 +1014,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -1038,22 +1038,22 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
